--- a/TeamDetails/TasksBreakDown/ShitijKhanna.xlsx
+++ b/TeamDetails/TasksBreakDown/ShitijKhanna.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shitij khanna.admin-PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\internsdhip\trunk\TeamDetails\TasksBreakDown\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>story ID</t>
   </si>
@@ -103,38 +103,17 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> T_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      T_1</t>
-  </si>
-  <si>
-    <t>T-3</t>
-  </si>
-  <si>
     <t>Make block diagram of the entire code journey.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> T_4</t>
   </si>
   <si>
     <t xml:space="preserve">      Technical Understanding of the story.
 Which languages (Angular,Bootstarp) is used to implement the story .    </t>
   </si>
   <si>
-    <t>T_5</t>
-  </si>
-  <si>
     <t>Unit Testing</t>
   </si>
   <si>
-    <t xml:space="preserve">  T_6</t>
-  </si>
-  <si>
     <t>Code Review</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> T_7</t>
   </si>
   <si>
     <t>Incorporate code review comments.</t>
@@ -162,18 +141,6 @@
     <t>Understanding forward and backward linkages.</t>
   </si>
   <si>
-    <t>T_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> T_5</t>
-  </si>
-  <si>
-    <t>T_6</t>
-  </si>
-  <si>
-    <t>T_7</t>
-  </si>
-  <si>
     <t>4 hrs</t>
   </si>
   <si>
@@ -184,9 +151,6 @@
   </si>
   <si>
     <t xml:space="preserve">           2 hrs</t>
-  </si>
-  <si>
-    <t>T_4</t>
   </si>
   <si>
     <t>24 hrs</t>
@@ -197,6 +161,39 @@
   <si>
     <t xml:space="preserve">      Technical Understanding of the story.
 Which languages (HTML) is used to implement the story .    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      T-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> T-02</t>
+  </si>
+  <si>
+    <t>T-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> T-04</t>
+  </si>
+  <si>
+    <t>T-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  T-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> T-07</t>
+  </si>
+  <si>
+    <t>T-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> T-05</t>
+  </si>
+  <si>
+    <t>T-06</t>
+  </si>
+  <si>
+    <t>T-07</t>
   </si>
 </sst>
 </file>
@@ -234,7 +231,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -325,16 +322,181 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -342,17 +504,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -382,19 +544,68 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -678,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,329 +904,338 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+    </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="29"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="28"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="31"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="29"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="32"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="30"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="31"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="29"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="32"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="32"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="33"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="36"/>
+      <c r="G15" s="37"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="C16" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="17" t="s">
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="28"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="29"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="28"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="32"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="28"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="17" t="s">
+      <c r="E19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="32"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="5" t="s">
+      <c r="F20" s="9"/>
+      <c r="G20" s="30"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="31"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="28"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="29"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="28"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="32"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="28"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="17" t="s">
+      <c r="E24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="32"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="33"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="E25" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="37"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
+      <c r="A26" s="2"/>
       <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">

--- a/TeamDetails/TasksBreakDown/ShitijKhanna.xlsx
+++ b/TeamDetails/TasksBreakDown/ShitijKhanna.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
   <si>
     <t>story ID</t>
   </si>
@@ -50,9 +50,95 @@
     <t>SSDMS-14</t>
   </si>
   <si>
-    <t>Understanding  'WHY' of the story?
-To create a LOGOUT functionality so that the user can successfully exit the Profile
-Creation page.</t>
+    <t>Make block diagram of the entire code journey.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Technical Understanding of the story.
+Which languages (Angular,Bootstarp) is used to implement the story .    </t>
+  </si>
+  <si>
+    <t>Unit Testing</t>
+  </si>
+  <si>
+    <t>Code Review</t>
+  </si>
+  <si>
+    <t>Incorporate code review comments.</t>
+  </si>
+  <si>
+    <t>3 hrs</t>
+  </si>
+  <si>
+    <t>6 hrs</t>
+  </si>
+  <si>
+    <t>2 hrs</t>
+  </si>
+  <si>
+    <t>1 hrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         22 hrs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                         Understanding  'WHY' of the story?
+                                  To make a Batch Assignment table including a search option.</t>
+  </si>
+  <si>
+    <t>Understanding forward and backward linkages.</t>
+  </si>
+  <si>
+    <t>4 hrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6 hrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           2 hrs</t>
+  </si>
+  <si>
+    <t>SSDMS-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Technical Understanding of the story.
+Which languages (HTML) is used to implement the story .    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      T-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> T-02</t>
+  </si>
+  <si>
+    <t>T-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> T-04</t>
+  </si>
+  <si>
+    <t>T-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  T-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> T-07</t>
+  </si>
+  <si>
+    <t>T-04</t>
+  </si>
+  <si>
+    <t>T-06</t>
+  </si>
+  <si>
+    <t>T-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understanding  'WHY' of the story?
+</t>
+  </si>
+  <si>
+    <t>Logout functionality</t>
   </si>
   <si>
     <r>
@@ -68,139 +154,81 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>BACKWARD</t>
+      <t/>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">:SCGJ  user fill the LOGIN form and after he/she enters into the profile creation page </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.FORWARD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: SCGJ user press the logout  button,then he/she will forwarded to LOGIN page.</t>
-    </r>
-  </si>
-  <si>
-    <t>Make block diagram of the entire code journey.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Technical Understanding of the story.
-Which languages (Angular,Bootstarp) is used to implement the story .    </t>
-  </si>
-  <si>
-    <t>Unit Testing</t>
-  </si>
-  <si>
-    <t>Code Review</t>
-  </si>
-  <si>
-    <t>Incorporate code review comments.</t>
-  </si>
-  <si>
-    <t>3 hrs</t>
-  </si>
-  <si>
-    <t>6 hrs</t>
-  </si>
-  <si>
-    <t>2 hrs</t>
-  </si>
-  <si>
-    <t>1 hrs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         22 hrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                         Understanding  'WHY' of the story?
-                                  To make a Batch Assignment table including a search option.</t>
-  </si>
-  <si>
-    <t>Understanding forward and backward linkages.</t>
-  </si>
-  <si>
-    <t>4 hrs</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7 hrs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  6 hrs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           2 hrs</t>
-  </si>
-  <si>
-    <t>24 hrs</t>
-  </si>
-  <si>
-    <t>SSDMS-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Technical Understanding of the story.
-Which languages (HTML) is used to implement the story .    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      T-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> T-02</t>
-  </si>
-  <si>
-    <t>T-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> T-04</t>
-  </si>
-  <si>
-    <t>T-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  T-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> T-07</t>
-  </si>
-  <si>
-    <t>T-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> T-05</t>
-  </si>
-  <si>
-    <t>T-06</t>
-  </si>
-  <si>
-    <t>T-07</t>
+  </si>
+  <si>
+    <t>Batch Assignment and Search option</t>
+  </si>
+  <si>
+    <t>Pick Batch-ID to be search from frontend.</t>
+  </si>
+  <si>
+    <t>Send Batch-ID to a Backend.</t>
+  </si>
+  <si>
+    <t>Receive data from database.</t>
+  </si>
+  <si>
+    <t>Implement database SQL queries.</t>
+  </si>
+  <si>
+    <t>Send data to frontend.</t>
+  </si>
+  <si>
+    <t>Receive data sent by Database,SQL query.</t>
+  </si>
+  <si>
+    <t>Populate the table with data received from Backend.</t>
+  </si>
+  <si>
+    <t>T-08</t>
+  </si>
+  <si>
+    <t>T-10</t>
+  </si>
+  <si>
+    <t>T-11</t>
+  </si>
+  <si>
+    <t>T-12</t>
+  </si>
+  <si>
+    <t>T-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6 hrs</t>
+  </si>
+  <si>
+    <t>1 hr</t>
+  </si>
+  <si>
+    <t>2 hr</t>
+  </si>
+  <si>
+    <t>3 hr</t>
+  </si>
+  <si>
+    <t>Receive detail of Batch-ID</t>
+  </si>
+  <si>
+    <t>40 hrs</t>
+  </si>
+  <si>
+    <t>T-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> T-13</t>
+  </si>
+  <si>
+    <t>T-14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,8 +244,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,8 +274,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -490,11 +540,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -516,13 +640,70 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -540,72 +721,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -887,16 +1049,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="80" customWidth="1"/>
     <col min="5" max="5" width="14.140625" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
@@ -926,326 +1088,481 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+    <row r="2" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
       <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="27"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="41"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="28"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="41"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="33"/>
+      <c r="G5" s="31"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="41"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="32"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="41"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="32"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="41"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="28"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="41"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="41"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="29"/>
+      <c r="G10" s="31"/>
+    </row>
+    <row r="11" spans="1:7" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="41"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="32"/>
+    </row>
+    <row r="12" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="41"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="28"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="41"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="41"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="42"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="27"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="41"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="28"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="41"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="E19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="41"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="41"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="29"/>
+      <c r="G21" s="31"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="41"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="32"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="41"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="32"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="41"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="32"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="41"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="28"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="41"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="25" t="s">
+      <c r="D26" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="41"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="41"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="41"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="41"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="41"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="41"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="41"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="41"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27"/>
-    </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="29"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="16" t="s">
+      <c r="F34" s="3"/>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="41"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="30"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="31"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="31"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="29"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="32"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="30"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="31"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="29"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="F35" s="3"/>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="42"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="32"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="32"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="37"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="25" t="s">
+      <c r="E36" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="29"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="32"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="32"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="30"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="31"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="29"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="32"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="32"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="36"/>
-      <c r="G25" s="37"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="1"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="15"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="31">
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
     <mergeCell ref="A3:A15"/>
     <mergeCell ref="B3:B15"/>
     <mergeCell ref="E3:E4"/>
@@ -1257,24 +1574,22 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D5:D8"/>
     <mergeCell ref="C5:C8"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B16:B25"/>
-    <mergeCell ref="A16:A25"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="G21:G25"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="F5:F8"/>
     <mergeCell ref="G5:G8"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="G10:G12"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="B17:B36"/>
+    <mergeCell ref="A17:A36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TeamDetails/TasksBreakDown/ShitijKhanna.xlsx
+++ b/TeamDetails/TasksBreakDown/ShitijKhanna.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
   <si>
     <t>story ID</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>T-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              2 hrs</t>
   </si>
 </sst>
 </file>
@@ -281,7 +284,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -416,16 +419,85 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -433,183 +505,10 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -618,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -649,37 +548,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -688,22 +621,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -718,56 +639,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1051,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,89 +983,93 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="18"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="44"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="27"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="17" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="28"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="37" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="31"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="18" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="32"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="32"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="28"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="44"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
@@ -1182,44 +1080,48 @@
         <v>15</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="12"/>
+      <c r="G9" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="37" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="31"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="18" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="32"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="28"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="7" t="s">
         <v>29</v>
       </c>
@@ -1230,11 +1132,13 @@
         <v>13</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="12"/>
+      <c r="G13" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="44"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="7" t="s">
         <v>30</v>
       </c>
@@ -1245,65 +1149,71 @@
         <v>16</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="12"/>
+      <c r="G14" s="16" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="13" t="s">
+      <c r="A15" s="25"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="27"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="17" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="28"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="37"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="6" t="s">
         <v>26</v>
       </c>
@@ -1314,11 +1224,13 @@
         <v>21</v>
       </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="12"/>
+      <c r="G19" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="37"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="6" t="s">
         <v>27</v>
       </c>
@@ -1329,62 +1241,66 @@
         <v>15</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="12"/>
+      <c r="G20" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37" t="s">
+      <c r="A21" s="24"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="37" t="s">
+      <c r="E21" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="31"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="18" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="32"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="32"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="32"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="28"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="37"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="10" t="s">
         <v>29</v>
       </c>
@@ -1395,11 +1311,13 @@
         <v>52</v>
       </c>
       <c r="F26" s="9"/>
-      <c r="G26" s="11"/>
+      <c r="G26" s="15" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
-      <c r="B27" s="37"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="10" t="s">
         <v>33</v>
       </c>
@@ -1410,11 +1328,13 @@
         <v>53</v>
       </c>
       <c r="F27" s="9"/>
-      <c r="G27" s="11"/>
+      <c r="G27" s="15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
-      <c r="B28" s="37"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="10" t="s">
         <v>34</v>
       </c>
@@ -1425,11 +1345,13 @@
         <v>54</v>
       </c>
       <c r="F28" s="9"/>
-      <c r="G28" s="11"/>
+      <c r="G28" s="15" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
-      <c r="B29" s="37"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="10" t="s">
         <v>46</v>
       </c>
@@ -1440,11 +1362,13 @@
         <v>54</v>
       </c>
       <c r="F29" s="9"/>
-      <c r="G29" s="11"/>
+      <c r="G29" s="15" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
-      <c r="B30" s="37"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="10" t="s">
         <v>57</v>
       </c>
@@ -1455,11 +1379,13 @@
         <v>53</v>
       </c>
       <c r="F30" s="9"/>
-      <c r="G30" s="11"/>
+      <c r="G30" s="15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
-      <c r="B31" s="37"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="10" t="s">
         <v>47</v>
       </c>
@@ -1470,11 +1396,13 @@
         <v>53</v>
       </c>
       <c r="F31" s="9"/>
-      <c r="G31" s="11"/>
+      <c r="G31" s="15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
-      <c r="B32" s="37"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="10" t="s">
         <v>48</v>
       </c>
@@ -1485,11 +1413,13 @@
         <v>52</v>
       </c>
       <c r="F32" s="9"/>
-      <c r="G32" s="11"/>
+      <c r="G32" s="15" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
-      <c r="B33" s="37"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="10" t="s">
         <v>49</v>
       </c>
@@ -1500,11 +1430,13 @@
         <v>54</v>
       </c>
       <c r="F33" s="9"/>
-      <c r="G33" s="11"/>
+      <c r="G33" s="15" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
-      <c r="B34" s="37"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="6" t="s">
         <v>58</v>
       </c>
@@ -1515,11 +1447,13 @@
         <v>15</v>
       </c>
       <c r="F34" s="3"/>
-      <c r="G34" s="12"/>
+      <c r="G34" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
-      <c r="B35" s="37"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="6" t="s">
         <v>59</v>
       </c>
@@ -1530,22 +1464,26 @@
         <v>16</v>
       </c>
       <c r="F35" s="3"/>
-      <c r="G35" s="12"/>
+      <c r="G35" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="42"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="16" t="s">
+      <c r="A36" s="25"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F36" s="14"/>
-      <c r="G36" s="15"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="14" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
@@ -1559,21 +1497,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A3:A15"/>
-    <mergeCell ref="B3:B15"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="C5:C8"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="F17:F18"/>
@@ -1590,6 +1513,21 @@
     <mergeCell ref="C21:C25"/>
     <mergeCell ref="B17:B36"/>
     <mergeCell ref="A17:A36"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A3:A15"/>
+    <mergeCell ref="B3:B15"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="C5:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TeamDetails/TasksBreakDown/ShitijKhanna.xlsx
+++ b/TeamDetails/TasksBreakDown/ShitijKhanna.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="64">
   <si>
     <t>story ID</t>
   </si>
@@ -225,6 +225,15 @@
   </si>
   <si>
     <t xml:space="preserve">              2 hrs</t>
+  </si>
+  <si>
+    <t>4 hrs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          6 hrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 hrs</t>
   </si>
 </sst>
 </file>
@@ -517,7 +526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -561,6 +570,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -579,89 +594,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -945,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,93 +1001,93 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="44"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="17" t="s">
+      <c r="F3" s="45"/>
+      <c r="G3" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="18"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="18" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="18" t="s">
+      <c r="F5" s="47"/>
+      <c r="G5" s="20" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="18"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="18"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="18"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
@@ -1085,43 +1103,43 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="18" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="37"/>
-      <c r="G10" s="18" t="s">
+      <c r="F10" s="50"/>
+      <c r="G10" s="20" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="18"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="18"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="7" t="s">
         <v>29</v>
       </c>
@@ -1137,8 +1155,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="7" t="s">
         <v>30</v>
       </c>
@@ -1154,8 +1172,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
-      <c r="B15" s="26"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="11" t="s">
         <v>31</v>
       </c>
@@ -1171,49 +1189,51 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="17" t="s">
-        <v>20</v>
+      <c r="F17" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="19">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="18"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="6" t="s">
         <v>26</v>
       </c>
@@ -1223,14 +1243,16 @@
       <c r="E19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="5" t="s">
-        <v>21</v>
+      <c r="F19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="6" t="s">
         <v>27</v>
       </c>
@@ -1240,67 +1262,71 @@
       <c r="E20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="5" t="s">
-        <v>15</v>
+      <c r="F20" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18" t="s">
+      <c r="A21" s="26"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="37"/>
-      <c r="G21" s="18" t="s">
-        <v>51</v>
+      <c r="F21" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="18"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="18"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="18"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="18"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="18"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="10" t="s">
         <v>29</v>
       </c>
@@ -1310,14 +1336,16 @@
       <c r="E26" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="15" t="s">
+      <c r="F26" s="9" t="s">
         <v>52</v>
       </c>
+      <c r="G26" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
-      <c r="B27" s="18"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="10" t="s">
         <v>33</v>
       </c>
@@ -1333,8 +1361,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="18"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="10" t="s">
         <v>34</v>
       </c>
@@ -1350,8 +1378,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
-      <c r="B29" s="18"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="10" t="s">
         <v>46</v>
       </c>
@@ -1367,8 +1395,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
-      <c r="B30" s="18"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="10" t="s">
         <v>57</v>
       </c>
@@ -1384,8 +1412,8 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
-      <c r="B31" s="18"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="10" t="s">
         <v>47</v>
       </c>
@@ -1401,8 +1429,8 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
-      <c r="B32" s="18"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="10" t="s">
         <v>48</v>
       </c>
@@ -1418,8 +1446,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
-      <c r="B33" s="18"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="10" t="s">
         <v>49</v>
       </c>
@@ -1435,8 +1463,8 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
-      <c r="B34" s="18"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="6" t="s">
         <v>58</v>
       </c>
@@ -1452,8 +1480,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
-      <c r="B35" s="18"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="6" t="s">
         <v>59</v>
       </c>
@@ -1469,8 +1497,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="25"/>
-      <c r="B36" s="43"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="52"/>
       <c r="C36" s="13" t="s">
         <v>50</v>
       </c>

--- a/TeamDetails/TasksBreakDown/ShitijKhanna.xlsx
+++ b/TeamDetails/TasksBreakDown/ShitijKhanna.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
   <si>
     <t>story ID</t>
   </si>
@@ -234,6 +234,12 @@
   </si>
   <si>
     <t xml:space="preserve"> 2 hrs</t>
+  </si>
+  <si>
+    <t>Populate the table in the BA page below the search option.</t>
+  </si>
+  <si>
+    <t>6 hrs.</t>
   </si>
 </sst>
 </file>
@@ -526,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -576,12 +582,78 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -597,21 +669,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -629,57 +692,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -961,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,93 +1013,93 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
       <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="19" t="s">
+      <c r="F3" s="32"/>
+      <c r="G3" s="28" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="20"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="20" t="s">
+      <c r="A5" s="41"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="20" t="s">
+      <c r="F5" s="34"/>
+      <c r="G5" s="29" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="20"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="20"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="20"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="22"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
@@ -1103,43 +1115,43 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="20" t="s">
+      <c r="A10" s="41"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="50"/>
-      <c r="G10" s="20" t="s">
+      <c r="F10" s="37"/>
+      <c r="G10" s="29" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="20"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="20"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="29"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="22"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="7" t="s">
         <v>29</v>
       </c>
@@ -1155,8 +1167,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="22"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="7" t="s">
         <v>30</v>
       </c>
@@ -1172,8 +1184,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
-      <c r="B15" s="29"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="11" t="s">
         <v>31</v>
       </c>
@@ -1189,51 +1201,51 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="42" t="s">
+      <c r="F17" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="20"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="29"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="20"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="6" t="s">
         <v>26</v>
       </c>
@@ -1251,8 +1263,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="6" t="s">
         <v>27</v>
       </c>
@@ -1270,63 +1282,63 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20" t="s">
+      <c r="A21" s="41"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>63</v>
+      <c r="F21" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="29">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="20"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="29"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="20"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="29"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="20"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="29"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="20"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="29"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
-      <c r="B26" s="20"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="10" t="s">
         <v>29</v>
       </c>
@@ -1344,47 +1356,47 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="10" t="s">
+      <c r="A27" s="41"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="41"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D28" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E28" s="10" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>54</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="29"/>
       <c r="C29" s="10" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>54</v>
@@ -1395,30 +1407,30 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
-      <c r="B30" s="20"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="29"/>
       <c r="C30" s="10" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="20"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="29"/>
       <c r="C31" s="10" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>53</v>
@@ -1429,118 +1441,119 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
-      <c r="B32" s="20"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="41"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>54</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="41"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="6" t="s">
+      <c r="F34" s="9"/>
+      <c r="G34" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="41"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D35" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E35" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="41"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="27"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="13" t="s">
+      <c r="F36" s="3"/>
+      <c r="G36" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="42"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D37" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E37" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="14" t="s">
+      <c r="F37" s="12"/>
+      <c r="G37" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="C37" s="1"/>
-    </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
       <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C39" s="1"/>
     </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="G21:G25"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="G5:G8"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="B17:B36"/>
-    <mergeCell ref="A17:A36"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="E21:E25"/>
     <mergeCell ref="C17:C18"/>
@@ -1556,6 +1569,22 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D5:D8"/>
     <mergeCell ref="C5:C8"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="G21:G25"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="B17:B37"/>
+    <mergeCell ref="A17:A37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TeamDetails/TasksBreakDown/ShitijKhanna.xlsx
+++ b/TeamDetails/TasksBreakDown/ShitijKhanna.xlsx
@@ -227,13 +227,13 @@
     <t>DONE</t>
   </si>
   <si>
-    <t xml:space="preserve">   IN dev</t>
-  </si>
-  <si>
     <t xml:space="preserve">  IN dev</t>
   </si>
   <si>
     <t>SSDMS-57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   DONE</t>
   </si>
 </sst>
 </file>
@@ -566,47 +566,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -616,104 +580,140 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -996,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,206 +1037,206 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="48">
         <v>22</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="48">
         <v>3</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="16">
+      <c r="F3" s="43"/>
+      <c r="G3" s="48">
         <v>3</v>
       </c>
-      <c r="H3" s="63"/>
+      <c r="H3" s="33"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="63"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="33"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16" t="s">
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="48">
         <v>6</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="16">
+      <c r="F5" s="45"/>
+      <c r="G5" s="48">
         <v>6</v>
       </c>
-      <c r="H5" s="63"/>
+      <c r="H5" s="33"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="63"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="33"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="63"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="33"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="63"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="33"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="26" t="s">
+      <c r="A9" s="48"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="16">
         <v>2</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="28">
+      <c r="F9" s="17"/>
+      <c r="G9" s="16">
         <v>2</v>
       </c>
-      <c r="H9" s="64"/>
+      <c r="H9" s="28"/>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16" t="s">
+      <c r="A10" s="48"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="48">
         <v>6</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="16">
+      <c r="F10" s="43"/>
+      <c r="G10" s="48">
         <v>6</v>
       </c>
-      <c r="H10" s="63"/>
+      <c r="H10" s="33"/>
     </row>
     <row r="11" spans="1:8" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="63"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="33"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="63"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="33"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="28" t="s">
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="16">
         <v>3</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="28">
+      <c r="F13" s="17"/>
+      <c r="G13" s="16">
         <v>3</v>
       </c>
-      <c r="H13" s="64"/>
+      <c r="H13" s="28"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="28" t="s">
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="16">
         <v>1</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="28">
+      <c r="F14" s="17"/>
+      <c r="G14" s="16">
         <v>1</v>
       </c>
-      <c r="H14" s="64"/>
+      <c r="H14" s="28"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="28" t="s">
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="16">
         <v>1</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="28">
+      <c r="F15" s="17"/>
+      <c r="G15" s="16">
         <v>1</v>
       </c>
-      <c r="H15" s="64"/>
+      <c r="H15" s="28"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
@@ -1250,391 +1250,391 @@
       <c r="G16" s="11">
         <v>22</v>
       </c>
-      <c r="H16" s="65"/>
+      <c r="H16" s="29"/>
     </row>
     <row r="17" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="34"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="18"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="42">
+        <v>43</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="42">
+        <v>4</v>
+      </c>
+      <c r="F18" s="41">
+        <v>4</v>
+      </c>
+      <c r="G18" s="42">
+        <v>0</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="53"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="53"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="22">
+        <v>6</v>
+      </c>
+      <c r="F20" s="20">
+        <v>6</v>
+      </c>
+      <c r="G20" s="22">
+        <v>0</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="53"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="22">
+        <v>2</v>
+      </c>
+      <c r="F21" s="20">
+        <v>2</v>
+      </c>
+      <c r="G21" s="22">
+        <v>0</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="35"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="53"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="34">
+        <v>6</v>
+      </c>
+      <c r="F22" s="30">
+        <v>6</v>
+      </c>
+      <c r="G22" s="34">
+        <v>0</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" s="35"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="53"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="35"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="53"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="35"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="53"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="35"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="53"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="35"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="53"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="19">
+        <v>1</v>
+      </c>
+      <c r="F27" s="23">
+        <v>1</v>
+      </c>
+      <c r="G27" s="19">
+        <v>0</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="53"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="19">
+        <v>3</v>
+      </c>
+      <c r="F28" s="23">
+        <v>3</v>
+      </c>
+      <c r="G28" s="19">
+        <v>0</v>
+      </c>
+      <c r="H28" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="44">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="53"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="19">
+        <v>2</v>
+      </c>
+      <c r="F29" s="23"/>
+      <c r="G29" s="19">
+        <v>2</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="53"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="19">
+        <v>3</v>
+      </c>
+      <c r="F30" s="23"/>
+      <c r="G30" s="19">
+        <v>3</v>
+      </c>
+      <c r="H30" s="21"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="53"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="19">
+        <v>3</v>
+      </c>
+      <c r="F31" s="23"/>
+      <c r="G31" s="19">
+        <v>3</v>
+      </c>
+      <c r="H31" s="21"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="53"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="44">
-        <v>4</v>
-      </c>
-      <c r="F18" s="47">
-        <v>4</v>
-      </c>
-      <c r="G18" s="44">
-        <v>0</v>
-      </c>
-      <c r="H18" s="35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="51">
-        <v>6</v>
-      </c>
-      <c r="F20" s="38">
-        <v>6</v>
-      </c>
-      <c r="G20" s="51">
-        <v>0</v>
-      </c>
-      <c r="H20" s="38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="51">
+      <c r="D32" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="19">
         <v>2</v>
       </c>
-      <c r="F21" s="38">
+      <c r="F32" s="23"/>
+      <c r="G32" s="19">
         <v>2</v>
       </c>
-      <c r="G21" s="51">
-        <v>0</v>
-      </c>
-      <c r="H21" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" s="62"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="35">
-        <v>6</v>
-      </c>
-      <c r="F22" s="53">
-        <v>6</v>
-      </c>
-      <c r="G22" s="35">
-        <v>0</v>
-      </c>
-      <c r="H22" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="I22" s="62"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="62"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="62"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="62"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="62"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="48"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="37">
+      <c r="H32" s="21"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="53"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="19">
+        <v>2</v>
+      </c>
+      <c r="F33" s="23"/>
+      <c r="G33" s="19">
+        <v>2</v>
+      </c>
+      <c r="H33" s="21"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="53"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="19">
         <v>1</v>
       </c>
-      <c r="F27" s="55">
+      <c r="F34" s="23"/>
+      <c r="G34" s="19">
         <v>1</v>
       </c>
-      <c r="G27" s="37">
-        <v>0</v>
-      </c>
-      <c r="H27" s="38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" s="37">
+      <c r="H34" s="21"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="53"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="19">
         <v>3</v>
       </c>
-      <c r="F28" s="55">
+      <c r="F35" s="23"/>
+      <c r="G35" s="19">
+        <v>3</v>
+      </c>
+      <c r="H35" s="21"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="53"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="22">
+        <v>2</v>
+      </c>
+      <c r="F36" s="21"/>
+      <c r="G36" s="22">
+        <v>2</v>
+      </c>
+      <c r="H36" s="21"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="53"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="22">
         <v>1</v>
       </c>
-      <c r="G28" s="37">
+      <c r="F37" s="21"/>
+      <c r="G37" s="22">
+        <v>1</v>
+      </c>
+      <c r="H37" s="21"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="54"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="26">
         <v>2</v>
       </c>
-      <c r="H28" s="38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="37">
+      <c r="F38" s="27"/>
+      <c r="G38" s="26">
         <v>2</v>
       </c>
-      <c r="F29" s="55"/>
-      <c r="G29" s="37">
-        <v>2</v>
-      </c>
-      <c r="H29" s="38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="37">
-        <v>3</v>
-      </c>
-      <c r="F30" s="55"/>
-      <c r="G30" s="37">
-        <v>3</v>
-      </c>
-      <c r="H30" s="39"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" s="37">
-        <v>3</v>
-      </c>
-      <c r="F31" s="55"/>
-      <c r="G31" s="37">
-        <v>3</v>
-      </c>
-      <c r="H31" s="39"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="37">
-        <v>2</v>
-      </c>
-      <c r="F32" s="55"/>
-      <c r="G32" s="37">
-        <v>2</v>
-      </c>
-      <c r="H32" s="39"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="37">
-        <v>2</v>
-      </c>
-      <c r="F33" s="55"/>
-      <c r="G33" s="37">
-        <v>2</v>
-      </c>
-      <c r="H33" s="39"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="48"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="37">
-        <v>1</v>
-      </c>
-      <c r="F34" s="55"/>
-      <c r="G34" s="37">
-        <v>1</v>
-      </c>
-      <c r="H34" s="39"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="48"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="37">
-        <v>3</v>
-      </c>
-      <c r="F35" s="55"/>
-      <c r="G35" s="37">
-        <v>3</v>
-      </c>
-      <c r="H35" s="39"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="48"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="51">
-        <v>2</v>
-      </c>
-      <c r="F36" s="39"/>
-      <c r="G36" s="51">
-        <v>2</v>
-      </c>
-      <c r="H36" s="39"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="48"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="51">
-        <v>1</v>
-      </c>
-      <c r="F37" s="39"/>
-      <c r="G37" s="51">
-        <v>1</v>
-      </c>
-      <c r="H37" s="39"/>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="56"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="60">
-        <v>2</v>
-      </c>
-      <c r="F38" s="61"/>
-      <c r="G38" s="60">
-        <v>2</v>
-      </c>
-      <c r="H38" s="39"/>
+      <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
@@ -1648,11 +1648,11 @@
       </c>
       <c r="F39" s="8">
         <f>SUM(F18:F38)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G39" s="8">
         <f>SUM(G18:G38)</f>
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1663,11 +1663,22 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="H22:H26"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="H5:H8"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A3:A15"/>
+    <mergeCell ref="B3:B15"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="A18:A38"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E22:E26"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
     <mergeCell ref="I21:I26"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A17:G17"/>
@@ -1684,22 +1695,11 @@
     <mergeCell ref="D22:D26"/>
     <mergeCell ref="C22:C26"/>
     <mergeCell ref="B18:B38"/>
-    <mergeCell ref="A18:A38"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E22:E26"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A3:A15"/>
-    <mergeCell ref="B3:B15"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="H22:H26"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="H18:H19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TeamDetails/TasksBreakDown/ShitijKhanna.xlsx
+++ b/TeamDetails/TasksBreakDown/ShitijKhanna.xlsx
@@ -535,7 +535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -606,45 +606,87 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -659,9 +701,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -672,48 +711,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -996,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,100 +1038,100 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
       <c r="G2" s="12"/>
       <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="48">
+      <c r="B3" s="30">
         <v>22</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="30">
         <v>3</v>
       </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="48">
+      <c r="F3" s="57"/>
+      <c r="G3" s="30">
         <v>3</v>
       </c>
-      <c r="H3" s="33"/>
+      <c r="H3" s="65"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="33"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="65"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="30">
         <v>6</v>
       </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="48">
+      <c r="F5" s="59"/>
+      <c r="G5" s="30">
         <v>6</v>
       </c>
-      <c r="H5" s="33"/>
+      <c r="H5" s="65"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="33"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="65"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="33"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="65"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="33"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="65"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="14" t="s">
         <v>18</v>
       </c>
@@ -1147,46 +1148,46 @@
       <c r="H9" s="28"/>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48" t="s">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="30">
         <v>6</v>
       </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="48">
+      <c r="F10" s="57"/>
+      <c r="G10" s="30">
         <v>6</v>
       </c>
-      <c r="H10" s="33"/>
+      <c r="H10" s="65"/>
     </row>
     <row r="11" spans="1:8" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="33"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="65"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="33"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="65"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="16" t="s">
         <v>20</v>
       </c>
@@ -1203,8 +1204,8 @@
       <c r="H13" s="28"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
-      <c r="B14" s="48"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="16" t="s">
         <v>21</v>
       </c>
@@ -1221,8 +1222,8 @@
       <c r="H14" s="28"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
-      <c r="B15" s="48"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="16" t="s">
         <v>22</v>
       </c>
@@ -1253,56 +1254,56 @@
       <c r="H16" s="29"/>
     </row>
     <row r="17" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="40"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
       <c r="H17" s="18"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="42">
+      <c r="B18" s="41">
         <v>43</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="41">
         <v>4</v>
       </c>
-      <c r="F18" s="41">
+      <c r="F18" s="53">
         <v>4</v>
       </c>
-      <c r="G18" s="42">
+      <c r="G18" s="41">
         <v>0</v>
       </c>
-      <c r="H18" s="34" t="s">
+      <c r="H18" s="42" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
-      <c r="B20" s="34"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="19" t="s">
         <v>17</v>
       </c>
@@ -1323,8 +1324,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
-      <c r="B21" s="34"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="19" t="s">
         <v>18</v>
       </c>
@@ -1343,78 +1344,78 @@
       <c r="H21" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="35"/>
+      <c r="I21" s="47"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34" t="s">
+      <c r="A22" s="39"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="42">
         <v>6</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="55">
         <v>6</v>
       </c>
-      <c r="G22" s="34">
+      <c r="G22" s="42">
         <v>0</v>
       </c>
-      <c r="H22" s="30" t="s">
+      <c r="H22" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="I22" s="35"/>
+      <c r="I22" s="47"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="35"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="47"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="35"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="47"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="35"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="47"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="35"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="47"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
-      <c r="B27" s="34"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="42"/>
       <c r="C27" s="19" t="s">
         <v>20</v>
       </c>
@@ -1435,8 +1436,8 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
-      <c r="B28" s="34"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="42"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19" t="s">
         <v>46</v>
@@ -1450,13 +1451,13 @@
       <c r="G28" s="19">
         <v>0</v>
       </c>
-      <c r="H28" s="20" t="s">
+      <c r="H28" s="66" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
-      <c r="B29" s="34"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="42"/>
       <c r="C29" s="19" t="s">
         <v>24</v>
       </c>
@@ -1470,13 +1471,13 @@
       <c r="G29" s="19">
         <v>2</v>
       </c>
-      <c r="H29" s="20" t="s">
+      <c r="H29" s="66" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
-      <c r="B30" s="34"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="42"/>
       <c r="C30" s="19" t="s">
         <v>25</v>
       </c>
@@ -1493,8 +1494,8 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="53"/>
-      <c r="B31" s="34"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="42"/>
       <c r="C31" s="19" t="s">
         <v>37</v>
       </c>
@@ -1511,8 +1512,8 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
-      <c r="B32" s="34"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="42"/>
       <c r="C32" s="19" t="s">
         <v>43</v>
       </c>
@@ -1529,8 +1530,8 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
-      <c r="B33" s="34"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="42"/>
       <c r="C33" s="19" t="s">
         <v>38</v>
       </c>
@@ -1547,8 +1548,8 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
-      <c r="B34" s="34"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="42"/>
       <c r="C34" s="19" t="s">
         <v>39</v>
       </c>
@@ -1565,8 +1566,8 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="53"/>
-      <c r="B35" s="34"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="42"/>
       <c r="C35" s="19" t="s">
         <v>40</v>
       </c>
@@ -1583,8 +1584,8 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="53"/>
-      <c r="B36" s="34"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="42"/>
       <c r="C36" s="19" t="s">
         <v>44</v>
       </c>
@@ -1601,8 +1602,8 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="53"/>
-      <c r="B37" s="34"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="42"/>
       <c r="C37" s="19" t="s">
         <v>45</v>
       </c>
@@ -1619,8 +1620,8 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="54"/>
-      <c r="B38" s="51"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="64"/>
       <c r="C38" s="24" t="s">
         <v>41</v>
       </c>
@@ -1647,7 +1648,6 @@
         <v>43</v>
       </c>
       <c r="F39" s="8">
-        <f>SUM(F18:F38)</f>
         <v>22</v>
       </c>
       <c r="G39" s="8">
@@ -1663,22 +1663,11 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A3:A15"/>
-    <mergeCell ref="B3:B15"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="A18:A38"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E22:E26"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="H22:H26"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="H18:H19"/>
     <mergeCell ref="I21:I26"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A17:G17"/>
@@ -1695,11 +1684,22 @@
     <mergeCell ref="D22:D26"/>
     <mergeCell ref="C22:C26"/>
     <mergeCell ref="B18:B38"/>
-    <mergeCell ref="H22:H26"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="H5:H8"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A18:A38"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E22:E26"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A3:A15"/>
+    <mergeCell ref="B3:B15"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="C5:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TeamDetails/TasksBreakDown/ShitijKhanna.xlsx
+++ b/TeamDetails/TasksBreakDown/ShitijKhanna.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
   <si>
     <t>story ID</t>
   </si>
@@ -227,13 +227,19 @@
     <t>DONE</t>
   </si>
   <si>
-    <t xml:space="preserve">  IN dev</t>
-  </si>
-  <si>
     <t>SSDMS-57</t>
   </si>
   <si>
     <t xml:space="preserve">   DONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  DONE</t>
+  </si>
+  <si>
+    <t>IN DEV</t>
+  </si>
+  <si>
+    <t>IN PROG</t>
   </si>
 </sst>
 </file>
@@ -535,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -550,7 +556,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -604,10 +609,104 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -630,91 +729,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -997,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,621 +1052,671 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="51">
         <v>22</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="51">
         <v>3</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="30">
+      <c r="F3" s="46">
         <v>3</v>
       </c>
-      <c r="H3" s="65"/>
+      <c r="G3" s="51">
+        <v>0</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="65"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30" t="s">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="51">
         <v>6</v>
       </c>
-      <c r="F5" s="59"/>
-      <c r="G5" s="30">
+      <c r="F5" s="48">
         <v>6</v>
       </c>
-      <c r="H5" s="65"/>
+      <c r="G5" s="51">
+        <v>0</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="65"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="36"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="65"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="36"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="65"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="36"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="14" t="s">
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="15">
         <v>2</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="16">
+      <c r="F9" s="28">
         <v>2</v>
       </c>
-      <c r="H9" s="28"/>
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30" t="s">
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="51">
         <v>6</v>
       </c>
-      <c r="F10" s="57"/>
-      <c r="G10" s="30">
+      <c r="F10" s="46"/>
+      <c r="G10" s="51">
         <v>6</v>
       </c>
-      <c r="H10" s="65"/>
+      <c r="H10" s="36" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="65"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="36"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="65"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="36"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="16" t="s">
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="15">
         <v>3</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="16">
+      <c r="F13" s="16"/>
+      <c r="G13" s="15">
         <v>3</v>
       </c>
-      <c r="H13" s="28"/>
+      <c r="H13" s="29"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="16" t="s">
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <v>1</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="16">
+      <c r="F14" s="16"/>
+      <c r="G14" s="15">
         <v>1</v>
       </c>
-      <c r="H14" s="28"/>
+      <c r="H14" s="29"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="16" t="s">
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="15">
         <v>1</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="16">
+      <c r="F15" s="16"/>
+      <c r="G15" s="15">
         <v>1</v>
       </c>
-      <c r="H15" s="28"/>
+      <c r="H15" s="29"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="11">
+      <c r="E16" s="5">
         <v>22</v>
       </c>
-      <c r="H16" s="29"/>
+      <c r="F16" s="5">
+        <v>11</v>
+      </c>
+      <c r="G16" s="10">
+        <v>11</v>
+      </c>
+      <c r="H16" s="30"/>
     </row>
     <row r="17" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="18"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="17"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="45">
+        <v>43</v>
+      </c>
+      <c r="C18" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="45">
+        <v>4</v>
+      </c>
+      <c r="F18" s="44">
+        <v>4</v>
+      </c>
+      <c r="G18" s="45">
+        <v>0</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="56"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="56"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="21">
+        <v>6</v>
+      </c>
+      <c r="F20" s="19">
+        <v>6</v>
+      </c>
+      <c r="G20" s="21">
+        <v>0</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="56"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="21">
+        <v>2</v>
+      </c>
+      <c r="F21" s="19">
+        <v>2</v>
+      </c>
+      <c r="G21" s="21">
+        <v>0</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="38"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="56"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="37">
+        <v>6</v>
+      </c>
+      <c r="F22" s="32">
+        <v>6</v>
+      </c>
+      <c r="G22" s="37">
+        <v>0</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" s="38"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="56"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="38"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="56"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="38"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="56"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="38"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="56"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="38"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="56"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="18">
+        <v>1</v>
+      </c>
+      <c r="F27" s="22">
+        <v>1</v>
+      </c>
+      <c r="G27" s="18">
+        <v>0</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="56"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="18">
+        <v>3</v>
+      </c>
+      <c r="F28" s="22">
+        <v>3</v>
+      </c>
+      <c r="G28" s="18">
+        <v>0</v>
+      </c>
+      <c r="H28" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="41">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="56"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="18">
+        <v>2</v>
+      </c>
+      <c r="F29" s="22">
+        <v>2</v>
+      </c>
+      <c r="G29" s="18">
+        <v>0</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="56"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="18">
+        <v>3</v>
+      </c>
+      <c r="F30" s="22">
+        <v>3</v>
+      </c>
+      <c r="G30" s="18">
+        <v>0</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="56"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="18">
+        <v>3</v>
+      </c>
+      <c r="F31" s="22">
+        <v>3</v>
+      </c>
+      <c r="G31" s="18">
+        <v>0</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="56"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="41">
-        <v>4</v>
-      </c>
-      <c r="F18" s="53">
-        <v>4</v>
-      </c>
-      <c r="G18" s="41">
+      <c r="D32" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="18">
+        <v>2</v>
+      </c>
+      <c r="F32" s="22">
+        <v>2</v>
+      </c>
+      <c r="G32" s="18">
         <v>0</v>
       </c>
-      <c r="H18" s="42" t="s">
+      <c r="H32" s="19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="22">
-        <v>6</v>
-      </c>
-      <c r="F20" s="20">
-        <v>6</v>
-      </c>
-      <c r="G20" s="22">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="56"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="18">
+        <v>2</v>
+      </c>
+      <c r="F33" s="22">
+        <v>2</v>
+      </c>
+      <c r="G33" s="18">
         <v>0</v>
       </c>
-      <c r="H20" s="20" t="s">
+      <c r="H33" s="19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="22">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="56"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="18">
+        <v>1</v>
+      </c>
+      <c r="F34" s="22">
+        <v>1</v>
+      </c>
+      <c r="G34" s="18">
+        <v>0</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="56"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="18">
+        <v>3</v>
+      </c>
+      <c r="F35" s="22">
+        <v>3</v>
+      </c>
+      <c r="G35" s="18">
+        <v>0</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="56"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="21">
         <v>2</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F36" s="19">
         <v>2</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G36" s="21">
         <v>0</v>
       </c>
-      <c r="H21" s="22" t="s">
+      <c r="H36" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="47"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="42">
-        <v>6</v>
-      </c>
-      <c r="F22" s="55">
-        <v>6</v>
-      </c>
-      <c r="G22" s="42">
-        <v>0</v>
-      </c>
-      <c r="H22" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="I22" s="47"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="47"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="47"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="47"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="47"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="19">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="56"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="21">
         <v>1</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F37" s="19"/>
+      <c r="G37" s="21">
         <v>1</v>
       </c>
-      <c r="G27" s="19">
-        <v>0</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" s="19">
-        <v>3</v>
-      </c>
-      <c r="F28" s="23">
-        <v>3</v>
-      </c>
-      <c r="G28" s="19">
-        <v>0</v>
-      </c>
-      <c r="H28" s="66" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="19">
+      <c r="H37" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="57"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="25">
         <v>2</v>
       </c>
-      <c r="F29" s="23"/>
-      <c r="G29" s="19">
+      <c r="F38" s="26"/>
+      <c r="G38" s="25">
         <v>2</v>
       </c>
-      <c r="H29" s="66" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="19">
-        <v>3</v>
-      </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="19">
-        <v>3</v>
-      </c>
-      <c r="H30" s="21"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" s="19">
-        <v>3</v>
-      </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="19">
-        <v>3</v>
-      </c>
-      <c r="H31" s="21"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="19">
-        <v>2</v>
-      </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="19">
-        <v>2</v>
-      </c>
-      <c r="H32" s="21"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="19">
-        <v>2</v>
-      </c>
-      <c r="F33" s="23"/>
-      <c r="G33" s="19">
-        <v>2</v>
-      </c>
-      <c r="H33" s="21"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="19">
-        <v>1</v>
-      </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="19">
-        <v>1</v>
-      </c>
-      <c r="H34" s="21"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="19">
-        <v>3</v>
-      </c>
-      <c r="F35" s="23"/>
-      <c r="G35" s="19">
-        <v>3</v>
-      </c>
-      <c r="H35" s="21"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="22">
-        <v>2</v>
-      </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="22">
-        <v>2</v>
-      </c>
-      <c r="H36" s="21"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="22">
-        <v>1</v>
-      </c>
-      <c r="F37" s="21"/>
-      <c r="G37" s="22">
-        <v>1</v>
-      </c>
-      <c r="H37" s="21"/>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="40"/>
-      <c r="B38" s="64"/>
-      <c r="C38" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="26">
-        <v>2</v>
-      </c>
-      <c r="F38" s="27"/>
-      <c r="G38" s="26">
-        <v>2</v>
-      </c>
-      <c r="H38" s="21"/>
+      <c r="H38" s="20"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="7">
         <f>SUM(E18:E38)</f>
         <v>43</v>
       </c>
-      <c r="F39" s="8">
-        <v>22</v>
-      </c>
-      <c r="G39" s="8">
+      <c r="F39" s="7">
+        <v>40</v>
+      </c>
+      <c r="G39" s="7">
         <f>SUM(G18:G38)</f>
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1660,14 +1724,29 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C41" s="1"/>
+      <c r="G41">
+        <f>SUM(G39,G16)</f>
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="H22:H26"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="H5:H8"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A3:A15"/>
+    <mergeCell ref="B3:B15"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="A18:A38"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E22:E26"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
     <mergeCell ref="I21:I26"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A17:G17"/>
@@ -1684,22 +1763,11 @@
     <mergeCell ref="D22:D26"/>
     <mergeCell ref="C22:C26"/>
     <mergeCell ref="B18:B38"/>
-    <mergeCell ref="A18:A38"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E22:E26"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A3:A15"/>
-    <mergeCell ref="B3:B15"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="H22:H26"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="H18:H19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TeamDetails/TasksBreakDown/ShitijKhanna.xlsx
+++ b/TeamDetails/TasksBreakDown/ShitijKhanna.xlsx
@@ -191,30 +191,39 @@
     <t>REMAINING HOURS</t>
   </si>
   <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>SSDMS-57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   DONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  DONE</t>
+  </si>
+  <si>
+    <t>IN DEV</t>
+  </si>
+  <si>
+    <t>IN PROG</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="26"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>TOTAL TIME</t>
+      <t xml:space="preserve">REMAINING HOURS    </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <b/>
+        <sz val="26"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -223,30 +232,12 @@
       <t xml:space="preserve">       </t>
     </r>
   </si>
-  <si>
-    <t>DONE</t>
-  </si>
-  <si>
-    <t>SSDMS-57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   DONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  DONE</t>
-  </si>
-  <si>
-    <t>IN DEV</t>
-  </si>
-  <si>
-    <t>IN PROG</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +291,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -541,7 +563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -567,9 +589,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -618,48 +637,87 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -673,9 +731,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -687,47 +742,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -735,6 +769,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF75468A"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1011,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,660 +1091,660 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="51">
+      <c r="B3" s="31">
         <v>22</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="51">
+      <c r="E3" s="31">
         <v>3</v>
       </c>
-      <c r="F3" s="46">
+      <c r="F3" s="58">
         <v>3</v>
       </c>
-      <c r="G3" s="51">
+      <c r="G3" s="31">
         <v>0</v>
       </c>
-      <c r="H3" s="35" t="s">
-        <v>50</v>
+      <c r="H3" s="66" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="35"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="66"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="31">
         <v>6</v>
       </c>
-      <c r="F5" s="48">
+      <c r="F5" s="60">
         <v>6</v>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="31">
         <v>0</v>
       </c>
-      <c r="H5" s="36" t="s">
-        <v>50</v>
+      <c r="H5" s="67" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="36"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="67"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="36"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="67"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="36"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="67"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="13" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <v>2</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="27">
         <v>2</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="14">
         <v>0</v>
       </c>
-      <c r="H9" s="31" t="s">
-        <v>50</v>
+      <c r="H9" s="30" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="51">
+      <c r="E10" s="31">
         <v>6</v>
       </c>
-      <c r="F10" s="46"/>
-      <c r="G10" s="51">
+      <c r="F10" s="58"/>
+      <c r="G10" s="31">
         <v>6</v>
       </c>
-      <c r="H10" s="36" t="s">
-        <v>54</v>
+      <c r="H10" s="67" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="36"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="67"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="36"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="67"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="15" t="s">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <v>3</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="15">
+      <c r="F13" s="15"/>
+      <c r="G13" s="14">
         <v>3</v>
       </c>
-      <c r="H13" s="29"/>
+      <c r="H13" s="28"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="15" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="14">
         <v>1</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="15">
+      <c r="F14" s="15"/>
+      <c r="G14" s="14">
         <v>1</v>
       </c>
-      <c r="H14" s="29"/>
+      <c r="H14" s="28"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="15" t="s">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="14">
         <v>1</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="15">
+      <c r="F15" s="15"/>
+      <c r="G15" s="14">
         <v>1</v>
       </c>
-      <c r="H15" s="29"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15" s="28"/>
+    </row>
+    <row r="16" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="68">
         <v>22</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="6">
         <v>11</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="70">
         <v>11</v>
       </c>
-      <c r="H16" s="30"/>
+      <c r="H16" s="29"/>
     </row>
     <row r="17" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="17"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="16"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="42">
+        <v>43</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="42">
+        <v>4</v>
+      </c>
+      <c r="F18" s="54">
+        <v>4</v>
+      </c>
+      <c r="G18" s="42">
+        <v>0</v>
+      </c>
+      <c r="H18" s="43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="40"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="40"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="20">
+        <v>6</v>
+      </c>
+      <c r="F20" s="18">
+        <v>6</v>
+      </c>
+      <c r="G20" s="20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="40"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="20">
+        <v>2</v>
+      </c>
+      <c r="F21" s="18">
+        <v>2</v>
+      </c>
+      <c r="G21" s="20">
+        <v>0</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="48"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="40"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="43">
+        <v>6</v>
+      </c>
+      <c r="F22" s="56">
+        <v>6</v>
+      </c>
+      <c r="G22" s="43">
+        <v>0</v>
+      </c>
+      <c r="H22" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="48"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="40"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="48"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="40"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="48"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="40"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="48"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="40"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="48"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="40"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="17">
+        <v>1</v>
+      </c>
+      <c r="F27" s="21">
+        <v>1</v>
+      </c>
+      <c r="G27" s="17">
+        <v>0</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="40"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="17">
+        <v>3</v>
+      </c>
+      <c r="F28" s="21">
+        <v>3</v>
+      </c>
+      <c r="G28" s="17">
+        <v>0</v>
+      </c>
+      <c r="H28" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="45">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="40"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="17">
+        <v>2</v>
+      </c>
+      <c r="F29" s="21">
+        <v>2</v>
+      </c>
+      <c r="G29" s="17">
+        <v>0</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="40"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="17">
+        <v>3</v>
+      </c>
+      <c r="F30" s="21">
+        <v>3</v>
+      </c>
+      <c r="G30" s="17">
+        <v>0</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="40"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="17">
+        <v>3</v>
+      </c>
+      <c r="F31" s="21">
+        <v>3</v>
+      </c>
+      <c r="G31" s="17">
+        <v>0</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="40"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="45">
-        <v>4</v>
-      </c>
-      <c r="F18" s="44">
-        <v>4</v>
-      </c>
-      <c r="G18" s="45">
+      <c r="D32" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="17">
+        <v>2</v>
+      </c>
+      <c r="F32" s="21">
+        <v>2</v>
+      </c>
+      <c r="G32" s="17">
         <v>0</v>
       </c>
-      <c r="H18" s="37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="21">
-        <v>6</v>
-      </c>
-      <c r="F20" s="19">
-        <v>6</v>
-      </c>
-      <c r="G20" s="21">
+      <c r="H32" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="40"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="17">
+        <v>2</v>
+      </c>
+      <c r="F33" s="21">
+        <v>2</v>
+      </c>
+      <c r="G33" s="17">
         <v>0</v>
       </c>
-      <c r="H20" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="21">
+      <c r="H33" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="40"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="17">
+        <v>1</v>
+      </c>
+      <c r="F34" s="21">
+        <v>1</v>
+      </c>
+      <c r="G34" s="17">
+        <v>0</v>
+      </c>
+      <c r="H34" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="40"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="17">
+        <v>3</v>
+      </c>
+      <c r="F35" s="21">
+        <v>3</v>
+      </c>
+      <c r="G35" s="17">
+        <v>0</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="40"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="20">
         <v>2</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F36" s="18">
         <v>2</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G36" s="20">
         <v>0</v>
       </c>
-      <c r="H21" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" s="38"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="37">
-        <v>6</v>
-      </c>
-      <c r="F22" s="32">
-        <v>6</v>
-      </c>
-      <c r="G22" s="37">
-        <v>0</v>
-      </c>
-      <c r="H22" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="I22" s="38"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="38"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="38"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="38"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="38"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="18">
+      <c r="H36" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="40"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="20">
         <v>1</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F37" s="18"/>
+      <c r="G37" s="20">
         <v>1</v>
       </c>
-      <c r="G27" s="18">
-        <v>0</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" s="18">
-        <v>3</v>
-      </c>
-      <c r="F28" s="22">
-        <v>3</v>
-      </c>
-      <c r="G28" s="18">
-        <v>0</v>
-      </c>
-      <c r="H28" s="27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="18">
+      <c r="H37" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="41"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="24">
         <v>2</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F38" s="25"/>
+      <c r="G38" s="24">
         <v>2</v>
       </c>
-      <c r="G29" s="18">
-        <v>0</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="18">
-        <v>3</v>
-      </c>
-      <c r="F30" s="22">
-        <v>3</v>
-      </c>
-      <c r="G30" s="18">
-        <v>0</v>
-      </c>
-      <c r="H30" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" s="18">
-        <v>3</v>
-      </c>
-      <c r="F31" s="22">
-        <v>3</v>
-      </c>
-      <c r="G31" s="18">
-        <v>0</v>
-      </c>
-      <c r="H31" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="18">
-        <v>2</v>
-      </c>
-      <c r="F32" s="22">
-        <v>2</v>
-      </c>
-      <c r="G32" s="18">
-        <v>0</v>
-      </c>
-      <c r="H32" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="56"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="18">
-        <v>2</v>
-      </c>
-      <c r="F33" s="22">
-        <v>2</v>
-      </c>
-      <c r="G33" s="18">
-        <v>0</v>
-      </c>
-      <c r="H33" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="18">
-        <v>1</v>
-      </c>
-      <c r="F34" s="22">
-        <v>1</v>
-      </c>
-      <c r="G34" s="18">
-        <v>0</v>
-      </c>
-      <c r="H34" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="56"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="18">
-        <v>3</v>
-      </c>
-      <c r="F35" s="22">
-        <v>3</v>
-      </c>
-      <c r="G35" s="18">
-        <v>0</v>
-      </c>
-      <c r="H35" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="56"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="21">
-        <v>2</v>
-      </c>
-      <c r="F36" s="19">
-        <v>2</v>
-      </c>
-      <c r="G36" s="21">
-        <v>0</v>
-      </c>
-      <c r="H36" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="56"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="21">
-        <v>1</v>
-      </c>
-      <c r="F37" s="19"/>
-      <c r="G37" s="21">
-        <v>1</v>
-      </c>
-      <c r="H37" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="57"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="25">
-        <v>2</v>
-      </c>
-      <c r="F38" s="26"/>
-      <c r="G38" s="25">
-        <v>2</v>
-      </c>
-      <c r="H38" s="20"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H38" s="19"/>
+    </row>
+    <row r="39" spans="1:8" ht="61.5" x14ac:dyDescent="0.9">
       <c r="A39" s="2"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="7" t="s">
-        <v>49</v>
+      <c r="D39" s="71" t="s">
+        <v>55</v>
       </c>
       <c r="E39" s="7">
         <f>SUM(E18:E38)</f>
@@ -1714,7 +1753,7 @@
       <c r="F39" s="7">
         <v>40</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="72">
         <f>SUM(G18:G38)</f>
         <v>3</v>
       </c>
@@ -1731,22 +1770,11 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A3:A15"/>
-    <mergeCell ref="B3:B15"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="A18:A38"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E22:E26"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="H22:H26"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="H18:H19"/>
     <mergeCell ref="I21:I26"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A17:G17"/>
@@ -1763,11 +1791,22 @@
     <mergeCell ref="D22:D26"/>
     <mergeCell ref="C22:C26"/>
     <mergeCell ref="B18:B38"/>
-    <mergeCell ref="H22:H26"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="H5:H8"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A18:A38"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E22:E26"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A3:A15"/>
+    <mergeCell ref="B3:B15"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="C5:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TeamDetails/TasksBreakDown/ShitijKhanna.xlsx
+++ b/TeamDetails/TasksBreakDown/ShitijKhanna.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
   <si>
     <t>story ID</t>
   </si>
@@ -235,12 +235,18 @@
   <si>
     <t>SSDMS-31</t>
   </si>
+  <si>
+    <t xml:space="preserve">     T-01</t>
+  </si>
+  <si>
+    <t>T-16</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,13 +316,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="22"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="36"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -333,16 +332,44 @@
     </font>
     <font>
       <b/>
+      <sz val="20"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="22"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="20"/>
-      <color theme="8"/>
+      <sz val="22"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -625,23 +652,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -663,174 +673,191 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1121,7 +1148,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B16"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1153,7 +1180,7 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="74" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -1161,700 +1188,702 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="76"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="41">
+      <c r="B3" s="46">
+        <v>14</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="46">
+        <v>3</v>
+      </c>
+      <c r="F3" s="48">
+        <v>3</v>
+      </c>
+      <c r="G3" s="50">
+        <v>0</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="49"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="46">
+        <v>2</v>
+      </c>
+      <c r="F5" s="51">
+        <v>2</v>
+      </c>
+      <c r="G5" s="46">
+        <v>0</v>
+      </c>
+      <c r="H5" s="52" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="52"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="52"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="52"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="57">
+        <v>2</v>
+      </c>
+      <c r="F9" s="57">
+        <v>2</v>
+      </c>
+      <c r="G9" s="57">
+        <v>0</v>
+      </c>
+      <c r="H9" s="58" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="46">
+        <v>2</v>
+      </c>
+      <c r="F10" s="48">
+        <v>2</v>
+      </c>
+      <c r="G10" s="46">
+        <v>0</v>
+      </c>
+      <c r="H10" s="52" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="52"/>
+    </row>
+    <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="52"/>
+    </row>
+    <row r="13" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="56">
+        <v>2</v>
+      </c>
+      <c r="F13" s="64"/>
+      <c r="G13" s="56">
+        <v>2</v>
+      </c>
+      <c r="H13" s="65" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="57">
+        <v>1</v>
+      </c>
+      <c r="F14" s="66"/>
+      <c r="G14" s="57">
+        <v>1</v>
+      </c>
+      <c r="H14" s="67"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="57">
+        <v>1</v>
+      </c>
+      <c r="F15" s="66"/>
+      <c r="G15" s="57">
+        <v>1</v>
+      </c>
+      <c r="H15" s="67"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="57">
+        <v>1</v>
+      </c>
+      <c r="F16" s="66"/>
+      <c r="G16" s="57">
+        <v>1</v>
+      </c>
+      <c r="H16" s="67"/>
+    </row>
+    <row r="17" spans="1:9" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A17" s="25"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="17">
+        <v>14</v>
+      </c>
+      <c r="F17" s="19">
+        <v>9</v>
+      </c>
+      <c r="G17" s="20">
+        <v>5</v>
+      </c>
+      <c r="H17" s="21"/>
+    </row>
+    <row r="18" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="31">
+        <v>43</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="31">
+        <v>4</v>
+      </c>
+      <c r="F19" s="41">
+        <v>4</v>
+      </c>
+      <c r="G19" s="31">
+        <v>0</v>
+      </c>
+      <c r="H19" s="32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="29"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="29"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="8">
+        <v>6</v>
+      </c>
+      <c r="F21" s="6">
+        <v>6</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="29"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="8">
+        <v>2</v>
+      </c>
+      <c r="F22" s="6">
+        <v>2</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="37"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="29"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="41">
+      <c r="D23" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="32">
+        <v>6</v>
+      </c>
+      <c r="F23" s="43">
+        <v>6</v>
+      </c>
+      <c r="G23" s="32">
+        <v>0</v>
+      </c>
+      <c r="H23" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" s="37"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="29"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="37"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="29"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="37"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="29"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="37"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="29"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="37"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="29"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1</v>
+      </c>
+      <c r="F28" s="9">
+        <v>1</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="29"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="5">
         <v>3</v>
       </c>
-      <c r="F3" s="63">
+      <c r="F29" s="9">
         <v>3</v>
       </c>
-      <c r="G3" s="41">
-        <v>0</v>
-      </c>
-      <c r="H3" s="32" t="s">
+      <c r="G29" s="5">
+        <v>0</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="29"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="5">
+        <v>2</v>
+      </c>
+      <c r="F30" s="9">
+        <v>2</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="32"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="41">
-        <v>2</v>
-      </c>
-      <c r="F5" s="38">
-        <v>2</v>
-      </c>
-      <c r="G5" s="41">
-        <v>0</v>
-      </c>
-      <c r="H5" s="33" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="29"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="5">
+        <v>3</v>
+      </c>
+      <c r="F31" s="9">
+        <v>3</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="29"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="5">
+        <v>3</v>
+      </c>
+      <c r="F32" s="9">
+        <v>3</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0</v>
+      </c>
+      <c r="H32" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="33"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="33"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="33"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="9">
-        <v>2</v>
-      </c>
-      <c r="F9" s="20">
-        <v>2</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="22" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="29"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="5">
+        <v>2</v>
+      </c>
+      <c r="F33" s="9">
+        <v>2</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0</v>
+      </c>
+      <c r="H33" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="41">
-        <v>2</v>
-      </c>
-      <c r="F10" s="63">
-        <v>2</v>
-      </c>
-      <c r="G10" s="41">
-        <v>0</v>
-      </c>
-      <c r="H10" s="33" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="29"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="5">
+        <v>2</v>
+      </c>
+      <c r="F34" s="9">
+        <v>2</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0</v>
+      </c>
+      <c r="H34" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="33"/>
-    </row>
-    <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="33"/>
-    </row>
-    <row r="13" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="23">
-        <v>2</v>
-      </c>
-      <c r="F13" s="66"/>
-      <c r="G13" s="23">
-        <v>2</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="9" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="29"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1</v>
+      </c>
+      <c r="F35" s="9">
+        <v>1</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="29"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="5">
+        <v>3</v>
+      </c>
+      <c r="F36" s="9">
+        <v>3</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="29"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E37" s="8">
+        <v>2</v>
+      </c>
+      <c r="F37" s="6">
+        <v>2</v>
+      </c>
+      <c r="G37" s="8">
+        <v>0</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="29"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="8">
         <v>1</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="9">
+      <c r="F38" s="6">
         <v>1</v>
       </c>
-      <c r="H14" s="21"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="9">
-        <v>1</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="9">
-        <v>1</v>
-      </c>
-      <c r="H15" s="21"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="9" t="s">
+      <c r="G38" s="8">
+        <v>0</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="30"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="9">
-        <v>1</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="9">
-        <v>1</v>
-      </c>
-      <c r="H16" s="21"/>
-    </row>
-    <row r="17" spans="1:9" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A17" s="77"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="67">
-        <v>14</v>
-      </c>
-      <c r="F17" s="69">
-        <v>9</v>
-      </c>
-      <c r="G17" s="70">
-        <v>5</v>
-      </c>
-      <c r="H17" s="71"/>
-    </row>
-    <row r="18" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="37">
-        <v>43</v>
-      </c>
-      <c r="C19" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="37">
-        <v>4</v>
-      </c>
-      <c r="F19" s="36">
-        <v>4</v>
-      </c>
-      <c r="G19" s="37">
-        <v>0</v>
-      </c>
-      <c r="H19" s="34" t="s">
+      <c r="E39" s="11">
+        <v>2</v>
+      </c>
+      <c r="F39" s="10">
+        <v>2</v>
+      </c>
+      <c r="G39" s="11">
+        <v>0</v>
+      </c>
+      <c r="H39" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="15">
-        <v>6</v>
-      </c>
-      <c r="F21" s="13">
-        <v>6</v>
-      </c>
-      <c r="G21" s="15">
-        <v>0</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="15">
-        <v>2</v>
-      </c>
-      <c r="F22" s="13">
-        <v>2</v>
-      </c>
-      <c r="G22" s="15">
-        <v>0</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" s="35"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="34">
-        <v>6</v>
-      </c>
-      <c r="F23" s="29">
-        <v>6</v>
-      </c>
-      <c r="G23" s="34">
-        <v>0</v>
-      </c>
-      <c r="H23" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" s="35"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="35"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="35"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="35"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="35"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="12">
-        <v>1</v>
-      </c>
-      <c r="F28" s="16">
-        <v>1</v>
-      </c>
-      <c r="G28" s="12">
-        <v>0</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="12">
-        <v>3</v>
-      </c>
-      <c r="F29" s="16">
-        <v>3</v>
-      </c>
-      <c r="G29" s="12">
-        <v>0</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="12">
-        <v>2</v>
-      </c>
-      <c r="F30" s="16">
-        <v>2</v>
-      </c>
-      <c r="G30" s="12">
-        <v>0</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="12">
-        <v>3</v>
-      </c>
-      <c r="F31" s="16">
-        <v>3</v>
-      </c>
-      <c r="G31" s="12">
-        <v>0</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" s="12">
-        <v>3</v>
-      </c>
-      <c r="F32" s="16">
-        <v>3</v>
-      </c>
-      <c r="G32" s="12">
-        <v>0</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="12">
-        <v>2</v>
-      </c>
-      <c r="F33" s="16">
-        <v>2</v>
-      </c>
-      <c r="G33" s="12">
-        <v>0</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" s="12">
-        <v>2</v>
-      </c>
-      <c r="F34" s="16">
-        <v>2</v>
-      </c>
-      <c r="G34" s="12">
-        <v>0</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="12">
-        <v>1</v>
-      </c>
-      <c r="F35" s="16">
-        <v>1</v>
-      </c>
-      <c r="G35" s="12">
-        <v>0</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E36" s="12">
-        <v>3</v>
-      </c>
-      <c r="F36" s="16">
-        <v>3</v>
-      </c>
-      <c r="G36" s="12">
-        <v>0</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="15">
-        <v>2</v>
-      </c>
-      <c r="F37" s="13">
-        <v>2</v>
-      </c>
-      <c r="G37" s="15">
-        <v>0</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="15">
-        <v>1</v>
-      </c>
-      <c r="F38" s="13">
-        <v>1</v>
-      </c>
-      <c r="G38" s="15">
-        <v>0</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="56"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="18">
-        <v>2</v>
-      </c>
-      <c r="F39" s="17">
-        <v>2</v>
-      </c>
-      <c r="G39" s="18">
-        <v>0</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
     <row r="40" spans="1:8" ht="92.25" x14ac:dyDescent="1.35">
-      <c r="A40" s="59" t="s">
+      <c r="A40" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="60"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="28" t="s">
+      <c r="B40" s="23"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="71">
         <f>SUM(E19:E39)</f>
         <v>43</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="72">
         <v>43</v>
       </c>
-      <c r="G40" s="62">
+      <c r="G40" s="16">
         <f>SUM(G19:G39)</f>
         <v>0</v>
       </c>
@@ -1867,6 +1896,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B19:B39"/>
+    <mergeCell ref="H23:H27"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="I22:I27"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="D23:D27"/>
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A3:A16"/>
@@ -1883,29 +1935,6 @@
     <mergeCell ref="A19:A39"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="E23:E27"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="I22:I27"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="G5:G8"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B19:B39"/>
-    <mergeCell ref="H23:H27"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="H5:H8"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="H19:H20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
